--- a/biology/Médecine/Externat_de_médecine_en_France/Externat_de_médecine_en_France.xlsx
+++ b/biology/Médecine/Externat_de_médecine_en_France/Externat_de_médecine_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Externat_de_m%C3%A9decine_en_France</t>
+          <t>Externat_de_médecine_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'externat — au sens strict du terme — constitue un ancien mode de formation des étudiants de médecine au sein des hôpitaux, notamment au cours du XIXe siècle. L'admission s'y faisait par concours et était préalable à la présentation du concours de l'internat. Il existait de fait une formation à deux vitesses : l'une dispensée exclusivement par l'université, l'autre dispensée exclusivement par l'hospice ou l'hospital (termes anciens conservés).
 Aujourd'hui, l'externat désigne par abus de langage le deuxième cycle des études médicales, c'est-à-dire les années du Diplôme de Formation Approfondie en Sciences Médicales (DFASM 1, 2 et 3).
